--- a/new_inputs/Exchange_rate.xlsx
+++ b/new_inputs/Exchange_rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykawa\Dropbox (Personal)\RAship_DCP3\DCP3_costing\DCP3_cost_R\Costing.vol5_LGH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Dropbox\NCDs\new_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2330FC-29A1-4D8D-83A1-DD72925360B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4D98D4-133E-4093-88FF-55E462FA18D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="3075" windowWidth="25440" windowHeight="15390" xr2:uid="{FFD35168-49F0-44A3-9DB6-BCFD382E2DAF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{FFD35168-49F0-44A3-9DB6-BCFD382E2DAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Exchange Rates" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yoshito Kawakatsu:</t>
         </r>
@@ -55,7 +55,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No data in WB and others
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="320">
   <si>
     <t>1960</t>
   </si>
@@ -1023,6 +1023,12 @@
   <si>
     <t>LMIC</t>
   </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
 </sst>
 </file>
 
@@ -1046,14 +1052,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1088,17 +1094,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1920,69 +1953,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{552DA319-8865-43D8-A98D-03640708CEBB}" name="Exchange_Tab" displayName="Exchange_Tab" ref="A1:BH255" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
-  <autoFilter ref="A1:BH255" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
-  <tableColumns count="60">
-    <tableColumn id="1" xr3:uid="{E565350E-9DC4-4A82-863F-B2516A4A3914}" name="Country" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{306D5975-A5FE-49C6-B152-B802E40733AC}" name="1960" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{4E110E04-1C06-4588-B485-67A6BF4E9F1E}" name="1961" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{88C376A8-F664-43D9-9BC8-1A25CC8D90D1}" name="1962" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{ACF51790-ABC5-41A9-BF1A-8141B4F19A2F}" name="1963" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{19677B45-B9A1-4D91-BA45-D2AA4FF6DE6E}" name="1964" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{02B82AD8-3C8C-4051-B3C8-FC0D054AF8CF}" name="1965" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{A648A154-04C1-4BAF-84A7-316F5C209919}" name="1966" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{0713C17C-AE7B-43AE-AA61-C2D0A87FB6F3}" name="1967" dataDxfId="51"/>
-    <tableColumn id="10" xr3:uid="{DEB94904-ECD6-4263-893A-9D6858E5948F}" name="1968" dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{DDA33CB2-0324-4B67-A2DD-4C743CD3FC61}" name="1969" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{468E4705-C3C9-4981-90A9-B68013DCF76F}" name="1970" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{BF329D28-8D10-4149-BE50-AFBB3FB495EC}" name="1971" dataDxfId="47"/>
-    <tableColumn id="14" xr3:uid="{282A248E-22C9-4428-99E2-8499C9772B58}" name="1972" dataDxfId="46"/>
-    <tableColumn id="15" xr3:uid="{6A6DBD6C-723D-4A2D-AC1B-0CD3489FA323}" name="1973" dataDxfId="45"/>
-    <tableColumn id="16" xr3:uid="{383F0791-962D-4E85-976B-649DB7528F6B}" name="1974" dataDxfId="44"/>
-    <tableColumn id="17" xr3:uid="{1D9AC166-FD2A-4A5F-9B8D-119FEE59A2FB}" name="1975" dataDxfId="43"/>
-    <tableColumn id="18" xr3:uid="{6C77A102-2F12-4ADE-B68E-AC4F33063579}" name="1976" dataDxfId="42"/>
-    <tableColumn id="19" xr3:uid="{A213B1FE-34E8-4A82-8EF3-4CCF5CF1D7CD}" name="1977" dataDxfId="41"/>
-    <tableColumn id="20" xr3:uid="{61FC11B5-B2BA-4898-A9F2-D22776D8DAF1}" name="1978" dataDxfId="40"/>
-    <tableColumn id="21" xr3:uid="{1E009869-7372-4AAA-80D8-829DA64B2103}" name="1979" dataDxfId="39"/>
-    <tableColumn id="22" xr3:uid="{938322C6-A879-4584-94DE-82A69451C720}" name="1980" dataDxfId="38"/>
-    <tableColumn id="23" xr3:uid="{7410CB20-DA23-4A60-8414-D0C99E54F6CB}" name="1981" dataDxfId="37"/>
-    <tableColumn id="24" xr3:uid="{5B652B05-20E7-4063-98BF-FA7CBCCDCF23}" name="1982" dataDxfId="36"/>
-    <tableColumn id="25" xr3:uid="{ED3A069A-297D-409D-A904-884DDE5B0A99}" name="1983" dataDxfId="35"/>
-    <tableColumn id="26" xr3:uid="{EA07448C-5FD6-4EE4-862F-B5E77A3F2F6F}" name="1984" dataDxfId="34"/>
-    <tableColumn id="27" xr3:uid="{994862BB-9225-463B-B56A-88D2478FC89B}" name="1985" dataDxfId="33"/>
-    <tableColumn id="28" xr3:uid="{7CFEB4C4-59AF-4F0F-B1BB-F9687E036192}" name="1986" dataDxfId="32"/>
-    <tableColumn id="29" xr3:uid="{40BEB096-B327-43CC-998D-B1CF1629F06A}" name="1987" dataDxfId="31"/>
-    <tableColumn id="30" xr3:uid="{C957E6DF-5B85-4D44-850E-79068F78A64B}" name="1988" dataDxfId="30"/>
-    <tableColumn id="31" xr3:uid="{07E6F47B-0009-41DC-9AF6-E9BB7CDCCF3B}" name="1989" dataDxfId="29"/>
-    <tableColumn id="32" xr3:uid="{59EC3D21-AA2B-41BE-9E41-4E89F5F100F8}" name="1990" dataDxfId="28"/>
-    <tableColumn id="33" xr3:uid="{8952EF30-685D-4D47-A697-4D630E89A5AE}" name="1991" dataDxfId="27"/>
-    <tableColumn id="34" xr3:uid="{A7D8434E-EECE-4C81-A331-21B6F38E3174}" name="1992" dataDxfId="26"/>
-    <tableColumn id="35" xr3:uid="{E855495A-DC13-4CDA-AF8D-4C0ADC3EB4FE}" name="1993" dataDxfId="25"/>
-    <tableColumn id="36" xr3:uid="{5C6DAB97-C2BD-43E7-AA2D-4FC753401CB7}" name="1994" dataDxfId="24"/>
-    <tableColumn id="37" xr3:uid="{B138AF5F-96DC-47D1-8E73-B4EB2956BF34}" name="1995" dataDxfId="23"/>
-    <tableColumn id="38" xr3:uid="{3C7A65C0-FB07-4C16-AB54-F9D9405AD2B3}" name="1996" dataDxfId="22"/>
-    <tableColumn id="39" xr3:uid="{E1C60682-0BD7-485A-8934-3D9B4A7125CA}" name="1997" dataDxfId="21"/>
-    <tableColumn id="40" xr3:uid="{4FADDAF5-7D39-46B5-9037-CD46EA1C8B3B}" name="1998" dataDxfId="20"/>
-    <tableColumn id="41" xr3:uid="{BEF04FE6-4B50-4241-867B-7E36B4317144}" name="1999" dataDxfId="19"/>
-    <tableColumn id="42" xr3:uid="{638BEFDD-45EA-462F-B35D-F5DED52EF5FB}" name="2000" dataDxfId="18"/>
-    <tableColumn id="43" xr3:uid="{9937DF89-F6C8-488C-85C0-4746ED1DB881}" name="2001" dataDxfId="17"/>
-    <tableColumn id="44" xr3:uid="{E4A972B2-1F93-4E14-8EDB-55B97493DB86}" name="2002" dataDxfId="16"/>
-    <tableColumn id="45" xr3:uid="{7CF9C9A5-FC1F-469F-A85D-5A1F0D0AE655}" name="2003" dataDxfId="15"/>
-    <tableColumn id="46" xr3:uid="{2B8B7BBB-3A6D-440A-9EA3-4C824D1606CD}" name="2004" dataDxfId="14"/>
-    <tableColumn id="47" xr3:uid="{672C6A8A-0E2E-44EF-ADB0-1A205EC7C8F4}" name="2005" dataDxfId="13"/>
-    <tableColumn id="48" xr3:uid="{006F6651-7BE3-4CB9-B757-C6E0EEDDF750}" name="2006" dataDxfId="12"/>
-    <tableColumn id="49" xr3:uid="{65DC5B2F-C0F1-4BC3-AF06-E2BFFB47F779}" name="2007" dataDxfId="11"/>
-    <tableColumn id="50" xr3:uid="{5B5C2F4A-49B8-419A-8A77-3A2A61D35874}" name="2008" dataDxfId="10"/>
-    <tableColumn id="51" xr3:uid="{944D033F-AC68-4707-99D3-0F66A66B9D35}" name="2009" dataDxfId="9"/>
-    <tableColumn id="52" xr3:uid="{ACFD1E44-4928-4494-A394-B9DD621AF390}" name="2010" dataDxfId="8"/>
-    <tableColumn id="53" xr3:uid="{9916737C-3158-426C-BBFE-A8FC1A57381F}" name="2011" dataDxfId="7"/>
-    <tableColumn id="54" xr3:uid="{D289924B-575A-4F9F-9D0F-6EFA101281AD}" name="2012" dataDxfId="6"/>
-    <tableColumn id="55" xr3:uid="{CE7915E2-116C-478F-AE8F-D9BB1698A9CE}" name="2013" dataDxfId="5"/>
-    <tableColumn id="56" xr3:uid="{38C6B99A-0222-480C-8FCD-D4C6F5C5CE2B}" name="2014" dataDxfId="4"/>
-    <tableColumn id="57" xr3:uid="{FA435CB5-1DF5-4788-BC38-2AFC85ADE08D}" name="2015" dataDxfId="3"/>
-    <tableColumn id="58" xr3:uid="{D6936399-D609-4A0C-B189-D30F45B0E711}" name="2016" dataDxfId="2"/>
-    <tableColumn id="59" xr3:uid="{344E81B2-9279-43BD-954C-670D6A3D51CF}" name="2017" dataDxfId="1"/>
-    <tableColumn id="60" xr3:uid="{2AEFCD18-222C-4610-A8ED-B275FEDBB821}" name="2018" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{552DA319-8865-43D8-A98D-03640708CEBB}" name="Exchange_Tab" displayName="Exchange_Tab" ref="A1:BJ255" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A1:BJ255" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+  <tableColumns count="62">
+    <tableColumn id="1" xr3:uid="{E565350E-9DC4-4A82-863F-B2516A4A3914}" name="Country" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{306D5975-A5FE-49C6-B152-B802E40733AC}" name="1960" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{4E110E04-1C06-4588-B485-67A6BF4E9F1E}" name="1961" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{88C376A8-F664-43D9-9BC8-1A25CC8D90D1}" name="1962" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{ACF51790-ABC5-41A9-BF1A-8141B4F19A2F}" name="1963" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{19677B45-B9A1-4D91-BA45-D2AA4FF6DE6E}" name="1964" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{02B82AD8-3C8C-4051-B3C8-FC0D054AF8CF}" name="1965" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{A648A154-04C1-4BAF-84A7-316F5C209919}" name="1966" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{0713C17C-AE7B-43AE-AA61-C2D0A87FB6F3}" name="1967" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{DEB94904-ECD6-4263-893A-9D6858E5948F}" name="1968" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{DDA33CB2-0324-4B67-A2DD-4C743CD3FC61}" name="1969" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{468E4705-C3C9-4981-90A9-B68013DCF76F}" name="1970" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{BF329D28-8D10-4149-BE50-AFBB3FB495EC}" name="1971" dataDxfId="49"/>
+    <tableColumn id="14" xr3:uid="{282A248E-22C9-4428-99E2-8499C9772B58}" name="1972" dataDxfId="48"/>
+    <tableColumn id="15" xr3:uid="{6A6DBD6C-723D-4A2D-AC1B-0CD3489FA323}" name="1973" dataDxfId="47"/>
+    <tableColumn id="16" xr3:uid="{383F0791-962D-4E85-976B-649DB7528F6B}" name="1974" dataDxfId="46"/>
+    <tableColumn id="17" xr3:uid="{1D9AC166-FD2A-4A5F-9B8D-119FEE59A2FB}" name="1975" dataDxfId="45"/>
+    <tableColumn id="18" xr3:uid="{6C77A102-2F12-4ADE-B68E-AC4F33063579}" name="1976" dataDxfId="44"/>
+    <tableColumn id="19" xr3:uid="{A213B1FE-34E8-4A82-8EF3-4CCF5CF1D7CD}" name="1977" dataDxfId="43"/>
+    <tableColumn id="20" xr3:uid="{61FC11B5-B2BA-4898-A9F2-D22776D8DAF1}" name="1978" dataDxfId="42"/>
+    <tableColumn id="21" xr3:uid="{1E009869-7372-4AAA-80D8-829DA64B2103}" name="1979" dataDxfId="41"/>
+    <tableColumn id="22" xr3:uid="{938322C6-A879-4584-94DE-82A69451C720}" name="1980" dataDxfId="40"/>
+    <tableColumn id="23" xr3:uid="{7410CB20-DA23-4A60-8414-D0C99E54F6CB}" name="1981" dataDxfId="39"/>
+    <tableColumn id="24" xr3:uid="{5B652B05-20E7-4063-98BF-FA7CBCCDCF23}" name="1982" dataDxfId="38"/>
+    <tableColumn id="25" xr3:uid="{ED3A069A-297D-409D-A904-884DDE5B0A99}" name="1983" dataDxfId="37"/>
+    <tableColumn id="26" xr3:uid="{EA07448C-5FD6-4EE4-862F-B5E77A3F2F6F}" name="1984" dataDxfId="36"/>
+    <tableColumn id="27" xr3:uid="{994862BB-9225-463B-B56A-88D2478FC89B}" name="1985" dataDxfId="35"/>
+    <tableColumn id="28" xr3:uid="{7CFEB4C4-59AF-4F0F-B1BB-F9687E036192}" name="1986" dataDxfId="34"/>
+    <tableColumn id="29" xr3:uid="{40BEB096-B327-43CC-998D-B1CF1629F06A}" name="1987" dataDxfId="33"/>
+    <tableColumn id="30" xr3:uid="{C957E6DF-5B85-4D44-850E-79068F78A64B}" name="1988" dataDxfId="32"/>
+    <tableColumn id="31" xr3:uid="{07E6F47B-0009-41DC-9AF6-E9BB7CDCCF3B}" name="1989" dataDxfId="31"/>
+    <tableColumn id="32" xr3:uid="{59EC3D21-AA2B-41BE-9E41-4E89F5F100F8}" name="1990" dataDxfId="30"/>
+    <tableColumn id="33" xr3:uid="{8952EF30-685D-4D47-A697-4D630E89A5AE}" name="1991" dataDxfId="29"/>
+    <tableColumn id="34" xr3:uid="{A7D8434E-EECE-4C81-A331-21B6F38E3174}" name="1992" dataDxfId="28"/>
+    <tableColumn id="35" xr3:uid="{E855495A-DC13-4CDA-AF8D-4C0ADC3EB4FE}" name="1993" dataDxfId="27"/>
+    <tableColumn id="36" xr3:uid="{5C6DAB97-C2BD-43E7-AA2D-4FC753401CB7}" name="1994" dataDxfId="26"/>
+    <tableColumn id="37" xr3:uid="{B138AF5F-96DC-47D1-8E73-B4EB2956BF34}" name="1995" dataDxfId="25"/>
+    <tableColumn id="38" xr3:uid="{3C7A65C0-FB07-4C16-AB54-F9D9405AD2B3}" name="1996" dataDxfId="24"/>
+    <tableColumn id="39" xr3:uid="{E1C60682-0BD7-485A-8934-3D9B4A7125CA}" name="1997" dataDxfId="23"/>
+    <tableColumn id="40" xr3:uid="{4FADDAF5-7D39-46B5-9037-CD46EA1C8B3B}" name="1998" dataDxfId="22"/>
+    <tableColumn id="41" xr3:uid="{BEF04FE6-4B50-4241-867B-7E36B4317144}" name="1999" dataDxfId="21"/>
+    <tableColumn id="42" xr3:uid="{638BEFDD-45EA-462F-B35D-F5DED52EF5FB}" name="2000" dataDxfId="20"/>
+    <tableColumn id="43" xr3:uid="{9937DF89-F6C8-488C-85C0-4746ED1DB881}" name="2001" dataDxfId="19"/>
+    <tableColumn id="44" xr3:uid="{E4A972B2-1F93-4E14-8EDB-55B97493DB86}" name="2002" dataDxfId="18"/>
+    <tableColumn id="45" xr3:uid="{7CF9C9A5-FC1F-469F-A85D-5A1F0D0AE655}" name="2003" dataDxfId="17"/>
+    <tableColumn id="46" xr3:uid="{2B8B7BBB-3A6D-440A-9EA3-4C824D1606CD}" name="2004" dataDxfId="16"/>
+    <tableColumn id="47" xr3:uid="{672C6A8A-0E2E-44EF-ADB0-1A205EC7C8F4}" name="2005" dataDxfId="15"/>
+    <tableColumn id="48" xr3:uid="{006F6651-7BE3-4CB9-B757-C6E0EEDDF750}" name="2006" dataDxfId="14"/>
+    <tableColumn id="49" xr3:uid="{65DC5B2F-C0F1-4BC3-AF06-E2BFFB47F779}" name="2007" dataDxfId="13"/>
+    <tableColumn id="50" xr3:uid="{5B5C2F4A-49B8-419A-8A77-3A2A61D35874}" name="2008" dataDxfId="12"/>
+    <tableColumn id="51" xr3:uid="{944D033F-AC68-4707-99D3-0F66A66B9D35}" name="2009" dataDxfId="11"/>
+    <tableColumn id="52" xr3:uid="{ACFD1E44-4928-4494-A394-B9DD621AF390}" name="2010" dataDxfId="10"/>
+    <tableColumn id="53" xr3:uid="{9916737C-3158-426C-BBFE-A8FC1A57381F}" name="2011" dataDxfId="9"/>
+    <tableColumn id="54" xr3:uid="{D289924B-575A-4F9F-9D0F-6EFA101281AD}" name="2012" dataDxfId="8"/>
+    <tableColumn id="55" xr3:uid="{CE7915E2-116C-478F-AE8F-D9BB1698A9CE}" name="2013" dataDxfId="7"/>
+    <tableColumn id="56" xr3:uid="{38C6B99A-0222-480C-8FCD-D4C6F5C5CE2B}" name="2014" dataDxfId="6"/>
+    <tableColumn id="57" xr3:uid="{FA435CB5-1DF5-4788-BC38-2AFC85ADE08D}" name="2015" dataDxfId="5"/>
+    <tableColumn id="58" xr3:uid="{D6936399-D609-4A0C-B189-D30F45B0E711}" name="2016" dataDxfId="4"/>
+    <tableColumn id="59" xr3:uid="{344E81B2-9279-43BD-954C-670D6A3D51CF}" name="2017" dataDxfId="3"/>
+    <tableColumn id="60" xr3:uid="{2AEFCD18-222C-4610-A8ED-B275FEDBB821}" name="2018" dataDxfId="2"/>
+    <tableColumn id="61" xr3:uid="{9220859E-D4CC-456A-87A5-9A3E6AD9B4FD}" name="2019" dataDxfId="1"/>
+    <tableColumn id="62" xr3:uid="{F02576E2-298E-4FF6-A580-5EC6348B3B0D}" name="2020" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2288,11 +2323,11 @@
   <dimension ref="A1:BP257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AS26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B241" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS56" sqref="AS56"/>
+      <selection pane="bottomRight" activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2300,7 +2335,9 @@
     <col min="1" max="1" width="42" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="36" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="55" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="253" width="8.81640625" style="1"/>
+    <col min="58" max="59" width="8.81640625" style="1"/>
+    <col min="60" max="60" width="8.6328125" style="1" customWidth="1"/>
+    <col min="61" max="253" width="8.81640625" style="1"/>
     <col min="254" max="254" width="42" style="1" bestFit="1" customWidth="1"/>
     <col min="255" max="308" width="11.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="309" max="509" width="8.81640625" style="1"/>
@@ -2492,7 +2529,7 @@
     <col min="16181" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>298</v>
       </c>
@@ -2673,8 +2710,14 @@
       <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="BI1" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -2856,7 +2899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -3038,7 +3081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -3220,7 +3263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -3402,7 +3445,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -3584,7 +3627,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -3646,7 +3689,7 @@
       <c r="BG7"/>
       <c r="BH7"/>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
@@ -3828,7 +3871,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
@@ -4010,7 +4053,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -4192,7 +4235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -4374,7 +4417,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
@@ -4556,7 +4599,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
@@ -4738,7 +4781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
@@ -4920,7 +4963,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>73</v>
       </c>
@@ -5102,7 +5145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -5284,7 +5327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
@@ -5466,7 +5509,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
@@ -5648,7 +5691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -5830,7 +5873,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
@@ -6012,7 +6055,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>79</v>
       </c>
@@ -6194,7 +6237,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -6376,7 +6419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -6558,7 +6601,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -6740,7 +6783,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>83</v>
       </c>
@@ -6922,7 +6965,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
@@ -7104,7 +7147,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>85</v>
       </c>
@@ -7286,7 +7329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
@@ -7468,7 +7511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
@@ -7649,8 +7692,11 @@
       <c r="BH29" t="s">
         <v>60</v>
       </c>
+      <c r="BJ29" s="1">
+        <v>5.14</v>
+      </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
@@ -7832,7 +7878,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>89</v>
       </c>
@@ -8014,7 +8060,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
@@ -8196,7 +8242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -8378,7 +8424,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
@@ -8440,7 +8486,7 @@
       <c r="BG34"/>
       <c r="BH34"/>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
@@ -8622,7 +8668,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -8804,7 +8850,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>95</v>
       </c>
@@ -8866,7 +8912,7 @@
       <c r="BG37"/>
       <c r="BH37"/>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
@@ -8928,7 +8974,7 @@
       <c r="BG38"/>
       <c r="BH38"/>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>97</v>
       </c>
@@ -9110,7 +9156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>98</v>
       </c>
@@ -9292,7 +9338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>99</v>
       </c>
@@ -9474,7 +9520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>100</v>
       </c>
@@ -9655,8 +9701,11 @@
       <c r="BH42" t="s">
         <v>60</v>
       </c>
+      <c r="BJ42" s="1">
+        <v>6.46</v>
+      </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>101</v>
       </c>
@@ -9838,7 +9887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>102</v>
       </c>
@@ -9900,7 +9949,7 @@
       <c r="BG44"/>
       <c r="BH44"/>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>103</v>
       </c>
@@ -9962,7 +10011,7 @@
       <c r="BG45"/>
       <c r="BH45"/>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>104</v>
       </c>
@@ -10144,7 +10193,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>299</v>
       </c>
@@ -10326,7 +10375,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>105</v>
       </c>
@@ -13180,7 +13229,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>121</v>
       </c>
@@ -13242,7 +13291,7 @@
       <c r="BG65"/>
       <c r="BH65"/>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>122</v>
       </c>
@@ -13304,7 +13353,7 @@
       <c r="BG66"/>
       <c r="BH66"/>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>123</v>
       </c>
@@ -13366,7 +13415,7 @@
       <c r="BG67"/>
       <c r="BH67"/>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>124</v>
       </c>
@@ -13428,7 +13477,7 @@
       <c r="BG68"/>
       <c r="BH68"/>
     </row>
-    <row r="69" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>125</v>
       </c>
@@ -13610,7 +13659,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>301</v>
       </c>
@@ -13792,7 +13841,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>126</v>
       </c>
@@ -13974,7 +14023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
@@ -14156,7 +14205,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>128</v>
       </c>
@@ -14338,7 +14387,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>129</v>
       </c>
@@ -14520,7 +14569,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>130</v>
       </c>
@@ -14702,7 +14751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>131</v>
       </c>
@@ -14884,7 +14933,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>132</v>
       </c>
@@ -15066,7 +15115,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>133</v>
       </c>
@@ -15248,7 +15297,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>134</v>
       </c>
@@ -15417,20 +15466,23 @@
       <c r="BD79" t="s">
         <v>60</v>
       </c>
-      <c r="BE79" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF79" t="s">
-        <v>60</v>
-      </c>
-      <c r="BG79" t="s">
-        <v>60</v>
-      </c>
-      <c r="BH79" t="s">
-        <v>60</v>
+      <c r="BE79">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BF79">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BG79">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BH79">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BJ79" s="1">
+        <v>1.18</v>
       </c>
     </row>
-    <row r="80" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>135</v>
       </c>
@@ -15612,7 +15664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>302</v>
       </c>
@@ -15794,7 +15846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>136</v>
       </c>
@@ -15976,7 +16028,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>137</v>
       </c>
@@ -16157,8 +16209,11 @@
       <c r="BH83" t="s">
         <v>60</v>
       </c>
+      <c r="BJ83" s="1">
+        <v>0.72699999999999998</v>
+      </c>
     </row>
-    <row r="84" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>138</v>
       </c>
@@ -16340,7 +16395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>139</v>
       </c>
@@ -16522,7 +16577,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>140</v>
       </c>
@@ -16704,7 +16759,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>308</v>
       </c>
@@ -16886,7 +16941,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>141</v>
       </c>
@@ -17068,7 +17123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>142</v>
       </c>
@@ -17250,7 +17305,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>143</v>
       </c>
@@ -17432,7 +17487,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>144</v>
       </c>
@@ -17614,7 +17669,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>145</v>
       </c>
@@ -17796,7 +17851,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>146</v>
       </c>
@@ -17978,7 +18033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>147</v>
       </c>
@@ -18160,7 +18215,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>148</v>
       </c>
@@ -18342,7 +18397,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>149</v>
       </c>
@@ -28732,7 +28787,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>209</v>
       </c>
@@ -28914,7 +28969,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>210</v>
       </c>
@@ -29096,7 +29151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>211</v>
       </c>
@@ -29278,7 +29333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="164" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>212</v>
       </c>
@@ -29460,7 +29515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="165" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>213</v>
       </c>
@@ -29641,8 +29696,11 @@
       <c r="BH165" t="s">
         <v>60</v>
       </c>
+      <c r="BJ165" s="1">
+        <v>4.157</v>
+      </c>
     </row>
-    <row r="166" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>214</v>
       </c>
@@ -29824,7 +29882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>215</v>
       </c>
@@ -30006,7 +30064,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="168" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>216</v>
       </c>
@@ -30188,7 +30246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="169" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>217</v>
       </c>
@@ -30370,7 +30428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="170" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>218</v>
       </c>
@@ -30552,7 +30610,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>219</v>
       </c>
@@ -30734,7 +30792,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>220</v>
       </c>
@@ -30916,7 +30974,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>221</v>
       </c>
@@ -30978,7 +31036,7 @@
       <c r="BG173"/>
       <c r="BH173"/>
     </row>
-    <row r="174" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>222</v>
       </c>
@@ -31160,7 +31218,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>223</v>
       </c>
@@ -31342,7 +31400,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="176" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>224</v>
       </c>
@@ -33956,7 +34014,7 @@
       <c r="BG192"/>
       <c r="BH192"/>
     </row>
-    <row r="193" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>241</v>
       </c>
@@ -34138,7 +34196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>242</v>
       </c>
@@ -34320,7 +34378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="195" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>243</v>
       </c>
@@ -34502,7 +34560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="196" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>244</v>
       </c>
@@ -34684,7 +34742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="197" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>245</v>
       </c>
@@ -34865,8 +34923,11 @@
       <c r="BH197" t="s">
         <v>60</v>
       </c>
+      <c r="BJ197" s="1">
+        <v>966.2</v>
+      </c>
     </row>
-    <row r="198" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>246</v>
       </c>
@@ -35048,7 +35109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="199" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>247</v>
       </c>
@@ -35230,7 +35291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="200" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>248</v>
       </c>
@@ -35412,7 +35473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="201" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>249</v>
       </c>
@@ -35594,7 +35655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="202" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>250</v>
       </c>
@@ -35776,7 +35837,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="203" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>251</v>
       </c>
@@ -35958,7 +36019,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="204" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>252</v>
       </c>
@@ -36140,7 +36201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="205" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>253</v>
       </c>
@@ -36322,7 +36383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>254</v>
       </c>
@@ -36504,7 +36565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>255</v>
       </c>
@@ -36686,7 +36747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="208" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>256</v>
       </c>
@@ -39420,7 +39481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="225" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>272</v>
       </c>
@@ -39601,8 +39662,11 @@
       <c r="BH225" t="s">
         <v>60</v>
       </c>
+      <c r="BJ225" s="1">
+        <v>32.268000000000001</v>
+      </c>
     </row>
-    <row r="226" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>273</v>
       </c>
@@ -39784,7 +39848,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="227" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>274</v>
       </c>
@@ -39966,7 +40030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="228" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>275</v>
       </c>
@@ -40148,7 +40212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="229" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>276</v>
       </c>
@@ -40330,7 +40394,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="230" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>277</v>
       </c>
@@ -40512,7 +40576,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="231" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>278</v>
       </c>
@@ -40694,7 +40758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>279</v>
       </c>
@@ -40876,7 +40940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="233" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>280</v>
       </c>
@@ -41058,7 +41122,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="234" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>281</v>
       </c>
@@ -41239,8 +41303,11 @@
       <c r="BH234" t="s">
         <v>60</v>
       </c>
+      <c r="BJ234" s="1">
+        <v>2320</v>
+      </c>
     </row>
-    <row r="235" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>282</v>
       </c>
@@ -41422,7 +41489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="236" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>283</v>
       </c>
@@ -41604,7 +41671,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="237" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>284</v>
       </c>
@@ -41786,7 +41853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="238" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>285</v>
       </c>
@@ -41968,7 +42035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="239" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>286</v>
       </c>
@@ -42150,7 +42217,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="240" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>287</v>
       </c>
@@ -43059,6 +43126,9 @@
       <c r="BH244" t="s">
         <v>60</v>
       </c>
+      <c r="BJ244" s="1">
+        <v>23229</v>
+      </c>
     </row>
     <row r="245" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
@@ -44151,6 +44221,9 @@
       <c r="BH250" t="s">
         <v>60</v>
       </c>
+      <c r="BJ250" s="1">
+        <v>16.57</v>
+      </c>
     </row>
     <row r="251" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
@@ -45243,11 +45316,11 @@
       <c r="BH256">
         <v>555.71783040000003</v>
       </c>
-      <c r="BI256" t="s">
-        <v>316</v>
-      </c>
-      <c r="BJ256" t="s">
-        <v>316</v>
+      <c r="BI256">
+        <v>555.71783040000003</v>
+      </c>
+      <c r="BJ256">
+        <v>555.71783040000003</v>
       </c>
       <c r="BK256" t="s">
         <v>316</v>
@@ -45449,11 +45522,11 @@
       <c r="BH257">
         <v>68.389467089999997</v>
       </c>
-      <c r="BI257" t="s">
-        <v>316</v>
-      </c>
-      <c r="BJ257" t="s">
-        <v>316</v>
+      <c r="BI257">
+        <v>68.389467089999997</v>
+      </c>
+      <c r="BJ257">
+        <v>68.389467089999997</v>
       </c>
       <c r="BK257" t="s">
         <v>316</v>
